--- a/add-info-dmp/ig/StructureDefinition-LegalAuthenticator.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-LegalAuthenticator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:14+00:00</t>
+    <t>2025-05-02T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-LegalAuthenticator.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-LegalAuthenticator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:57+00:00</t>
+    <t>2025-05-02T14:15:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,7 +256,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {elementdefinition-identifier}
+    <t xml:space="preserve">integer {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat}
 </t>
   </si>
   <si>
@@ -621,7 +621,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="32.609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.89453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/add-info-dmp/ig/StructureDefinition-LegalAuthenticator.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-LegalAuthenticator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T14:15:44+00:00</t>
+    <t>2025-05-02T17:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-LegalAuthenticator.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-LegalAuthenticator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T17:24:18+00:00</t>
+    <t>2025-05-03T11:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -250,7 +250,7 @@
     <t>Base</t>
   </si>
   <si>
-    <t>LegalAuthenticator.1</t>
+    <t>LegalAuthenticator.XCN1</t>
   </si>
   <si>
     <t>1</t>
@@ -263,7 +263,7 @@
     <t>Identifiant (PS_IdNat)</t>
   </si>
   <si>
-    <t>LegalAuthenticator.2</t>
+    <t>LegalAuthenticator.XCN2</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -273,13 +273,13 @@
     <t>Nom d'exercice du professionnel, nom du patient, nom du système.</t>
   </si>
   <si>
-    <t>LegalAuthenticator.3</t>
+    <t>LegalAuthenticator.XCN3</t>
   </si>
   <si>
     <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
   </si>
   <si>
-    <t>LegalAuthenticator.9</t>
+    <t>LegalAuthenticator.XCN9</t>
   </si>
   <si>
     <t xml:space="preserve"> Autorité d’affectation </t>
@@ -288,13 +288,13 @@
     <t xml:space="preserve"> Autorité d’affectation</t>
   </si>
   <si>
-    <t>LegalAuthenticator.10</t>
+    <t>LegalAuthenticator.XCN10</t>
   </si>
   <si>
     <t>Type de nom : Valeur en fonction de l’auteur : • D, pour les personnes physiques, • U, pour les systèmes.</t>
   </si>
   <si>
-    <t>LegalAuthenticator.13</t>
+    <t>LegalAuthenticator.XCN13</t>
   </si>
   <si>
     <t>Type d’identifiant</t>
@@ -611,8 +611,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.38671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.38671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.73828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -642,7 +642,7 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="21.73828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>

--- a/add-info-dmp/ig/StructureDefinition-LegalAuthenticator.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-LegalAuthenticator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T11:17:55+00:00</t>
+    <t>2025-05-03T14:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-LegalAuthenticator.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-LegalAuthenticator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:02:53+00:00</t>
+    <t>2025-05-03T14:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
